--- a/biology/Zoologie/Heleomyza_oligocenica/Heleomyza_oligocenica.xlsx
+++ b/biology/Zoologie/Heleomyza_oligocenica/Heleomyza_oligocenica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heleomyza oligocenica est une espèce fossile d'insectes diptères de la famille des Heleomyzidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heleomyza oligocenica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Helomyza oligocenica[1],[2]. 
-Fossiles
-L'holotype R942 et sa contre empreinte R1005 de la collection Mieg conservée au musée d'histoire naturelle de Bâle vient de la localité de Kleinkembs en Bade-Wurtemberg en Allemagne[1],[2].
-Étymologie
-L'épithète spécifique oligocenica signifie en latin « de l'Oligocène » et rappelle donc l'époque géologique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heleomyza oligocenica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Helomyza oligocenica,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de petite taille, corps noir, ailes claires à nervures brunes dépassant longuement l'abdomen. Tête très indistincte, yeux ovales ; antennes avec chête allongé. Thorax ovale, noir, macrochètes dorsaux bien développés. Pattes bien conservées ; cuisses armées d'épines disposées en lignes parallèles. Sur la deuxième paire on voit distinctement cinq lignes d'épines ; tibias avec éperons. Ailes larges avec cellules distinctes, couvertes de microtiches ; nervure costale armée de soies très courtes, trois rangées respectivement 2 et 1 jusqu'au débouché des nervures Sc resp. R1, R2 + 3, de même la 4e longitudinale ; nervure sous-costale épaissie, d'abord accolée à R, s'en sépare et se jette dans C sous un angle voisin de 90° ; R à parcours légèrement sinueux, se termine dans C vers la moitié du bord antérieur sous un angle de 60° ; Rs (R2 +3) ondulé, se termine avant le sommet de l'aile ; nervure transversale postérieure à peine sinueuse. Abdomen velu, avec soies, cinq segments subégaux. »[1].
-Dimensions
-La longueur totale est de 4 mm ; la tête a une longueur de 0,5 mm et une largeur de 0,75 mm ; le thorax a une longueur de 2 mm et une largeur de 1,5 mm ; l'abdomen a une longueur de 1,5 mm et une largeur de 1,5 mm ; les ailes ont une longueur de 3,75 mm et une largeur de 1,5 mm[1].
-Affinités
-« Appartient sans doute au g. Helomyza. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R942 et sa contre empreinte R1005 de la collection Mieg conservée au musée d'histoire naturelle de Bâle vient de la localité de Kleinkembs en Bade-Wurtemberg en Allemagne,.
 </t>
         </is>
       </c>
@@ -580,13 +590,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique oligocenica signifie en latin « de l'Oligocène » et rappelle donc l'époque géologique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de petite taille, corps noir, ailes claires à nervures brunes dépassant longuement l'abdomen. Tête très indistincte, yeux ovales ; antennes avec chête allongé. Thorax ovale, noir, macrochètes dorsaux bien développés. Pattes bien conservées ; cuisses armées d'épines disposées en lignes parallèles. Sur la deuxième paire on voit distinctement cinq lignes d'épines ; tibias avec éperons. Ailes larges avec cellules distinctes, couvertes de microtiches ; nervure costale armée de soies très courtes, trois rangées respectivement 2 et 1 jusqu'au débouché des nervures Sc resp. R1, R2 + 3, de même la 4e longitudinale ; nervure sous-costale épaissie, d'abord accolée à R, s'en sépare et se jette dans C sous un angle voisin de 90° ; R à parcours légèrement sinueux, se termine dans C vers la moitié du bord antérieur sous un angle de 60° ; Rs (R2 +3) ondulé, se termine avant le sommet de l'aile ; nervure transversale postérieure à peine sinueuse. Abdomen velu, avec soies, cinq segments subégaux. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4 mm ; la tête a une longueur de 0,5 mm et une largeur de 0,75 mm ; le thorax a une longueur de 2 mm et une largeur de 1,5 mm ; l'abdomen a une longueur de 1,5 mm et une largeur de 1,5 mm ; les ailes ont une longueur de 3,75 mm et une largeur de 1,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Appartient sans doute au g. Helomyza. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza_oligocenica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Adultes vivent dans endroits frais et obscurs. Larves saprophages. »[1].
+« Adultes vivent dans endroits frais et obscurs. Larves saprophages. ».
 </t>
         </is>
       </c>
